--- a/data/trans_dic/P41_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P41_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene contrato temporal en la actualidad</t>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63,51%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>78,47%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>77,72%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,73%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>68,92%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>72,82%</t>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>24,75%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,6; 81,46</t>
+          <t>3,15; 27,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,11; 85,95</t>
+          <t>5,69; 31,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,58; 94,2</t>
+          <t>9,96; 40,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,27; 94,11</t>
+          <t>10,24; 44,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,87; 93,6</t>
+          <t>9,13; 41,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,51; 95,32</t>
+          <t>12,65; 36,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,41; 84,08</t>
+          <t>15,28; 41,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,5; 84,97</t>
+          <t>9,58; 34,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,54; 83,09</t>
+          <t>13,52; 39,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,79; 86,62</t>
+          <t>8,98; 33,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50,14; 83,06</t>
+          <t>11,2; 29,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,13; 86,41</t>
+          <t>14,11; 32,68</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13,66; 32,2</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 36,58</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11,89; 30,76</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>49,31%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>53,52%</t>
+          <t>26,05%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32,49%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,46%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,9; 59,01</t>
+          <t>8,03; 33,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,49; 74,96</t>
+          <t>17,25; 65,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,08; 62,56</t>
+          <t>16,73; 65,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,2; 71,07</t>
+          <t>26,62; 74,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,55; 62,36</t>
+          <t>0,0; 65,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,05; 56,53</t>
+          <t>14,93; 38,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,22; 73,97</t>
+          <t>7,24; 26,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,22; 69,2</t>
+          <t>19,86; 45,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,97; 55,72</t>
+          <t>14,25; 39,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,29; 63,38</t>
+          <t>8,33; 28,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,95; 62,77</t>
+          <t>14,35; 32,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,28; 66,87</t>
+          <t>15,46; 44,09</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21,42; 49,56</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24,95; 55,91</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7,58; 52,13</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11,87%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,36; 36,25</t>
+          <t>3,24; 19,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 44,67</t>
+          <t>4,66; 22,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 45,4</t>
+          <t>5,06; 22,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 45,99</t>
+          <t>6,34; 25,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 29,27</t>
+          <t>1,6; 15,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 32,06</t>
+          <t>8,43; 21,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 29,03</t>
+          <t>9,49; 23,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 26,28</t>
+          <t>7,63; 21,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 28,43</t>
+          <t>5,45; 17,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,37; 34,75</t>
+          <t>5,65; 17,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 33,96</t>
+          <t>7,18; 17,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 33,24</t>
+          <t>8,98; 20,1</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 19,0</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 17,82</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 14,09</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,66; 21,15</t>
+          <t>3,67; 16,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 25,05</t>
+          <t>6,27; 20,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 23,96</t>
+          <t>5,46; 21,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 23,61</t>
+          <t>4,27; 19,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 29,16</t>
+          <t>1,36; 13,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 37,04</t>
+          <t>5,67; 17,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,28; 22,57</t>
+          <t>6,08; 19,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 26,06</t>
+          <t>3,26; 14,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 21,7</t>
+          <t>3,25; 14,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,7; 27,12</t>
+          <t>4,66; 17,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 20,77</t>
+          <t>6,08; 15,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,67; 20,8</t>
+          <t>7,53; 17,48</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 14,19</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 14,31</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 12,28</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,87</t>
+          <t>0,0; 7,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,31; 30,95</t>
+          <t>1,46; 12,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 29,51</t>
+          <t>0,0; 11,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 36,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,82</t>
+          <t>0,0; 9,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 45,68</t>
+          <t>0,0; 9,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,39; 57,06</t>
+          <t>1,95; 16,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 19,73</t>
+          <t>1,85; 16,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 19,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 29,95</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,21; 32,52</t>
+          <t>0,0; 4,89</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 11,24</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 11,3</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1531,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1376,42 +1551,57 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>60,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>51,18%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1624,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1644,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1664,27 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>12,95%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,35; 28,76</t>
+          <t>5,8; 11,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,27; 38,33</t>
+          <t>9,01; 22,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,14; 37,0</t>
+          <t>10,4; 22,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,66; 44,48</t>
+          <t>13,02; 28,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,23; 34,82</t>
+          <t>4,62; 24,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,2; 36,75</t>
+          <t>9,84; 16,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,25; 38,26</t>
+          <t>9,37; 16,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,14; 37,67</t>
+          <t>9,97; 16,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,34; 29,61</t>
+          <t>9,09; 15,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,87; 34,72</t>
+          <t>6,81; 12,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,58; 35,2</t>
+          <t>8,79; 13,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>28,64; 39,24</t>
+          <t>10,5; 17,9</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 18,25</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 20,71</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 17,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11104</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16240</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24557</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31468</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>29145</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27692</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36076</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24485</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30425</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28098</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>38795</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>52316</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>49042</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>61893</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>57243</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2710; 23878</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6089; 33557</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10532; 42406</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13062; 56272</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12778; 57413</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14868; 43404</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20479; 55015</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11507; 40984</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16560; 48199</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13066; 48721</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22809; 59293</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>34009; 78757</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>30839; 72715</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>39434; 91477</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>33945; 87808</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27012</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>61952</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>49418</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73506</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58160</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33629</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24241</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36801</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29806</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26319</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60640</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>86194</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>86219</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>103312</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>84478</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10987; 45949</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29100; 109899</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23983; 93426</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>41068; 114281</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 149593</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19899; 50964</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11737; 42368</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24227; 55496</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17322; 47607</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13268; 44704</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>38775; 87500</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>51142; 145882</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>56838; 131531</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>68827; 154220</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>29343; 201678</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11902</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16137</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15975</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19552</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10890</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29755</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41444</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27653</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25717</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41657</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>57581</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>43628</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>39910</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>36607</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4527; 26710</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7556; 35770</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6797; 30710</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8727; 34579</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2777; 26526</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18167; 46520</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24824; 61676</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15830; 43609</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10824; 34093</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13416; 42590</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25492; 62791</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38023; 85147</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>27878; 64936</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>25088; 59926</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21163; 57968</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14216</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>23365</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18689</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16605</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9315</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20229</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24067</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13216</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12037</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20372</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34445</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>47432</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>31905</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>28642</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>29687</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5993; 26170</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11709; 38997</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8807; 35079</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6673; 30996</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2650; 25304</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10850; 34013</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12875; 40384</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5692; 24798</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5243; 23539</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9815; 37311</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21567; 53282</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>29992; 69651</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>18703; 47643</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>17374; 45460</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>16200; 49720</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6813</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4817</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5818</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5688</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4393</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>12631</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>10505</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11206</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1922; 17111</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14683</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10179</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10777</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1794; 15509</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1676; 15435</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8390</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13377</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4649; 25168</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3858; 24192</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>64233</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>119954</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>115453</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>145948</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>107509</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>113336</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>127962</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>107973</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>98314</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>100506</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>177570</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>247916</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>223425</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>244263</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>208015</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>43822; 90483</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>80312; 201182</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>79469; 173814</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>102713; 222398</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>47486; 254987</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>85377; 146230</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>95891; 167837</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>81851; 138490</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>73243; 127789</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>74985; 138193</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>142705; 215680</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>200953; 342618</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>180515; 289297</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>196626; 330214</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>136054; 376839</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>